--- a/module_09/documents/Week9_Problems.xlsx
+++ b/module_09/documents/Week9_Problems.xlsx
@@ -1,43 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="29005"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rwakefield/Desktop/Work/OPER1160 Supply Chain &amp; Operations Mgt/OPER1160/module_09/documents/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="15195" windowHeight="8640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25060" windowHeight="18900"/>
   </bookViews>
   <sheets>
-    <sheet name="2" sheetId="1" r:id="rId1"/>
-    <sheet name="3" sheetId="13" r:id="rId2"/>
-    <sheet name="4" sheetId="5" r:id="rId3"/>
+    <sheet name="3" sheetId="13" r:id="rId1"/>
+    <sheet name="4" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
-  <si>
-    <t>AARDVARK ELECTRONICS</t>
-  </si>
-  <si>
-    <t>BEVERLY HILLS INC.</t>
-  </si>
-  <si>
-    <t>CONAN THE ELECTRICIAN</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>Delivery Reliability</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
   <si>
     <t>Total Cost Analysis for the Sourcing Decision at ABC</t>
   </si>
@@ -174,18 +165,6 @@
     <t>Total Savings</t>
   </si>
   <si>
-    <t>POTENTIAL SOURCES</t>
-  </si>
-  <si>
-    <t>IMPORTANCE</t>
-  </si>
-  <si>
-    <t>Scores:</t>
-  </si>
-  <si>
-    <t>PERFORMANCE DIMENSION</t>
-  </si>
-  <si>
     <t>Maintenance, repair, and operating supplies</t>
   </si>
   <si>
@@ -202,9 +181,6 @@
   </si>
   <si>
     <t>Other factors, besides cost, that should be considered by ABC when deciding whether or not to oursource the molded parts include whether the manufacture of parts is a core-competency of the firm as well as what quadrant of their strategic portfolio the part will occupy (Figure 7.1).</t>
-  </si>
-  <si>
-    <t>Based on the new results, Electra should change its supplier to Conan the Electrician, as it has the highest overall weighted score.</t>
   </si>
   <si>
     <t>Besides cost, Granville may also want to consider the quality of the maintenance provided and the schools' responsibility to support its community, which may mean keeping the current employees even though the cost is marginally higher.  Another option may be to reduce one of the employees to part-time status or to lay-off one of the employees in order to reduce expenses to below that of the outsource option.</t>
@@ -215,9 +191,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.0000"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -261,7 +237,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -269,87 +245,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -375,47 +286,29 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -477,12 +370,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -512,12 +405,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -721,341 +614,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A2:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-    </row>
-    <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="31">
-        <f>SUM((C4*$B$4),(C5*$B$5),(C6*$B$6))</f>
-        <v>3.6000000000000005</v>
-      </c>
-      <c r="D8" s="31">
-        <f>SUM((D4*$B$4),(D5*$B$5),(D6*$B$6))</f>
-        <v>3.5</v>
-      </c>
-      <c r="E8" s="31">
-        <f>SUM((E4*$B$4),(E5*$B$5),(E6*$B$6))</f>
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A10:E11"/>
-    <mergeCell ref="C2:E2"/>
-  </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="25" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="25">
+        <v>3</v>
+      </c>
+      <c r="C6" s="20">
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="25">
+        <v>4</v>
+      </c>
+      <c r="C7" s="20">
         <f>C6*D7</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="17">
         <v>0.5</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="25">
+        <v>5</v>
+      </c>
+      <c r="C8" s="20">
         <f>0.05</f>
         <v>0.05</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="25">
+        <v>6</v>
+      </c>
+      <c r="C9" s="20">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="25">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="20">
         <f>C9*D10</f>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="17">
         <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="25">
+        <v>7</v>
+      </c>
+      <c r="C11" s="20">
         <f>ROUND(D11/F11,4)</f>
         <v>0.01</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="6">
         <v>10000</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="10">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5">
         <v>1000000</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>16</v>
+      <c r="G11" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="25">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20">
         <v>0.03</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="25">
+        <v>11</v>
+      </c>
+      <c r="C13" s="20">
         <f>ROUND(D13/F13,4)</f>
         <v>0.03</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="6">
         <v>30000</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="10">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5">
         <v>1000000</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>16</v>
+      <c r="G13" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="26">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="21">
         <f>SUM(C6:C13)</f>
         <v>0.18149999999999999</v>
       </c>
@@ -1066,7 +809,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1074,24 +817,24 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="25">
+        <v>14</v>
+      </c>
+      <c r="C17" s="20">
         <v>0.1</v>
       </c>
       <c r="D17" s="1"/>
@@ -1101,11 +844,11 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="25">
+        <v>15</v>
+      </c>
+      <c r="C18" s="20">
         <v>0.01</v>
       </c>
       <c r="D18" s="1"/>
@@ -1115,11 +858,11 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="25">
+        <v>16</v>
+      </c>
+      <c r="C19" s="20">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D19" s="1"/>
@@ -1129,39 +872,39 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="25">
+        <v>17</v>
+      </c>
+      <c r="C20" s="20">
         <f>ROUND((D20*F20)/H20,4)</f>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>20</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F20" s="1">
         <v>36</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="10">
+        <v>22</v>
+      </c>
+      <c r="H20" s="5">
         <v>1000000</v>
       </c>
-      <c r="I20" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="26">
+      <c r="I20" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="21">
         <f>SUM(C17:C20)</f>
         <v>0.11570000000000001</v>
       </c>
@@ -1172,10 +915,10 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="26"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1183,12 +926,12 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="26">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="21">
         <f>$C$14-C21</f>
         <v>6.5799999999999984E-2</v>
       </c>
@@ -1199,49 +942,49 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="27">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="22">
         <f>C23*D24</f>
         <v>65799.999999999985</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="7">
         <v>1000000</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>16</v>
+      <c r="E24" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="25">
+        <v>14</v>
+      </c>
+      <c r="C28" s="20">
         <v>0.08</v>
       </c>
       <c r="D28" s="1"/>
@@ -1251,11 +994,11 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="25">
+        <v>15</v>
+      </c>
+      <c r="C29" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D29" s="1"/>
@@ -1265,11 +1008,11 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="25">
+        <v>16</v>
+      </c>
+      <c r="C30" s="20">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D30" s="1"/>
@@ -1279,39 +1022,39 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="25">
+        <v>17</v>
+      </c>
+      <c r="C31" s="20">
         <f>ROUND((D31*F31)/H31,4)</f>
         <v>8.9999999999999998E-4</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="6">
         <v>25</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F31" s="1">
         <v>36</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="10">
+        <v>22</v>
+      </c>
+      <c r="H31" s="5">
         <v>1000000</v>
       </c>
-      <c r="I31" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="26">
+      <c r="I31" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="21">
         <f>SUM(C28:C31)</f>
         <v>0.10290000000000001</v>
       </c>
@@ -1322,10 +1065,10 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="26"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1333,12 +1076,12 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="26">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="21">
         <f>$C$14-C32</f>
         <v>7.8599999999999989E-2</v>
       </c>
@@ -1349,191 +1092,191 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="27">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="22">
         <f>C34*D35</f>
         <v>78599.999999999985</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="7">
         <v>1000000</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>16</v>
+      <c r="E35" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="25">
+        <v>3</v>
+      </c>
+      <c r="C44" s="20">
         <v>0.03</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="25">
+        <v>4</v>
+      </c>
+      <c r="C45" s="20">
         <f>C44*D45</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="25">
+        <v>5</v>
+      </c>
+      <c r="C46" s="20">
         <f>0.05</f>
         <v>0.05</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="25">
+        <v>6</v>
+      </c>
+      <c r="C47" s="20">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="25">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="20">
         <f>C47*D48</f>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="25">
+        <v>7</v>
+      </c>
+      <c r="C49" s="20">
         <f>ROUND(D49/F49,4)</f>
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="6">
         <v>10000</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="10">
+        <v>8</v>
+      </c>
+      <c r="F49" s="5">
         <v>1500000</v>
       </c>
-      <c r="G49" s="13" t="s">
-        <v>16</v>
+      <c r="G49" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>17</v>
-      </c>
-      <c r="C50" s="25">
+        <v>10</v>
+      </c>
+      <c r="C50" s="20">
         <v>0.03</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="13"/>
+      <c r="G50" s="8"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="25">
+        <v>11</v>
+      </c>
+      <c r="C51" s="20">
         <f>ROUND(D51/F51,4)</f>
         <v>0.02</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="6">
         <v>30000</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="10">
+        <v>8</v>
+      </c>
+      <c r="F51" s="5">
         <v>1500000</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>16</v>
+      <c r="G51" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="26">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="21">
         <f>SUM(C44:C51)</f>
         <v>0.16819999999999999</v>
       </c>
@@ -1544,62 +1287,62 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1613,272 +1356,272 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="C5" s="16">
         <v>4</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="15"/>
-      <c r="C6" s="21">
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B6" s="10"/>
+      <c r="C6" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="8">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3">
         <f>($C$5*D10)*12</f>
         <v>120000</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="24">
         <v>2500</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3">
         <f>C10*D11</f>
         <v>42000</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="25">
         <v>0.35</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="8">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3">
         <f>($C$5*D12)*12</f>
         <v>96000</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="24">
         <v>2000</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="8">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3">
         <f>($C$6*D14)*12</f>
         <v>36000</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="24">
         <v>3000</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="8">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
         <f>C14*D15</f>
         <v>14400</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="25">
         <v>0.4</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="8">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3">
         <f>D16*12</f>
         <v>6000</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="24">
         <v>500</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="23">
         <f>SUM(C9:C16)</f>
         <v>314400</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="29">
+        <v>43</v>
+      </c>
+      <c r="C20" s="24">
         <v>300000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="28">
+    <row r="21" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="23">
         <f>SUM(C20)</f>
         <v>300000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="28">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="23">
         <f>C17-C21</f>
         <v>14400</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2037,6 +1780,27 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="3e2fa758-d5c7-43e8-93c9-7b786a144e7e">YHM3WN2HRAUM-1771043854-94</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="3e2fa758-d5c7-43e8-93c9-7b786a144e7e">
+      <Url>https://cms.conestogac.on.ca/sites/educational-technology/pm/OPER1160/_layouts/15/DocIdRedir.aspx?ID=YHM3WN2HRAUM-1771043854-94</Url>
+      <Description>YHM3WN2HRAUM-1771043854-94</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2086,39 +1850,46 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="3e2fa758-d5c7-43e8-93c9-7b786a144e7e">YHM3WN2HRAUM-1771043854-94</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="3e2fa758-d5c7-43e8-93c9-7b786a144e7e">
-      <Url>https://cms.conestogac.on.ca/sites/educational-technology/pm/OPER1160/_layouts/15/DocIdRedir.aspx?ID=YHM3WN2HRAUM-1771043854-94</Url>
-      <Description>YHM3WN2HRAUM-1771043854-94</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{582E631F-A38A-43E0-9C23-3BF1C46925DE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{582E631F-A38A-43E0-9C23-3BF1C46925DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3e2fa758-d5c7-43e8-93c9-7b786a144e7e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C206845-B7B0-4F3D-84C4-CCBBC0205636}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FADED0-038E-4A39-B9C3-0B188678EDD4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3e2fa758-d5c7-43e8-93c9-7b786a144e7e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDC2B656-CBBC-4911-8ED5-297CFE38E12A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDC2B656-CBBC-4911-8ED5-297CFE38E12A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32FADED0-038E-4A39-B9C3-0B188678EDD4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C206845-B7B0-4F3D-84C4-CCBBC0205636}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>